--- a/Jogos_do_Dia/2023-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -715,13 +715,13 @@
         <v>57</v>
       </c>
       <c r="F2">
+        <v>2.26</v>
+      </c>
+      <c r="G2">
         <v>2.55</v>
       </c>
-      <c r="G2">
-        <v>2.6</v>
-      </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="I2">
         <v>1.12</v>
@@ -733,13 +733,13 @@
         <v>1.55</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="M2">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="O2">
         <v>1.59</v>
@@ -819,13 +819,13 @@
         <v>58</v>
       </c>
       <c r="F3">
-        <v>6.66</v>
+        <v>7.15</v>
       </c>
       <c r="G3">
-        <v>3.83</v>
+        <v>3.98</v>
       </c>
       <c r="H3">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -840,10 +840,10 @@
         <v>3.6</v>
       </c>
       <c r="M3">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
         <v>1.36</v>
@@ -923,52 +923,52 @@
         <v>59</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -1027,52 +1027,52 @@
         <v>60</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1131,52 +1131,52 @@
         <v>61</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>62</v>
       </c>
       <c r="F7">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G7">
-        <v>5.75</v>
+        <v>6.6</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>15.25</v>
       </c>
       <c r="I7">
         <v>1.03</v>
@@ -1339,13 +1339,13 @@
         <v>63</v>
       </c>
       <c r="F8">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="G8">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="H8">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="I8">
         <v>1.08</v>
@@ -1360,10 +1360,10 @@
         <v>2.95</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
         <v>1.46</v>
@@ -1443,13 +1443,13 @@
         <v>64</v>
       </c>
       <c r="F9">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G9">
         <v>3.2</v>
       </c>
       <c r="H9">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1464,10 +1464,10 @@
         <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O9">
         <v>1.44</v>
@@ -1547,13 +1547,13 @@
         <v>65</v>
       </c>
       <c r="F10">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="G10">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="I10">
         <v>1.02</v>
@@ -1568,10 +1568,10 @@
         <v>6.5</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
         <v>1.2</v>
@@ -1610,19 +1610,19 @@
         <v>3.86</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF10">
         <v>1.65</v>
@@ -1651,13 +1651,13 @@
         <v>66</v>
       </c>
       <c r="F11">
-        <v>5.75</v>
+        <v>5.55</v>
       </c>
       <c r="G11">
-        <v>4.1</v>
+        <v>4.22</v>
       </c>
       <c r="H11">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1672,10 +1672,10 @@
         <v>4.33</v>
       </c>
       <c r="M11">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N11">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="O11">
         <v>1.29</v>
@@ -1714,19 +1714,19 @@
         <v>3.79</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF11">
         <v>1.65</v>
@@ -1755,13 +1755,13 @@
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>3.9</v>
+        <v>4.22</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1776,10 +1776,10 @@
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1859,13 +1859,13 @@
         <v>68</v>
       </c>
       <c r="F13">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="G13">
-        <v>4.3</v>
+        <v>3.88</v>
       </c>
       <c r="H13">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="I13">
         <v>1.02</v>
@@ -1880,10 +1880,10 @@
         <v>5.6</v>
       </c>
       <c r="M13">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="N13">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="O13">
         <v>1.25</v>
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2121,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="Y15">
         <v>0.89</v>
       </c>
       <c r="Z15">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="AA15">
         <v>0</v>

--- a/Jogos_do_Dia/2023-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -118,15 +118,15 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>Greece Super League</t>
+  </si>
+  <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Greece Super League</t>
-  </si>
-  <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Paide</t>
+  </si>
+  <si>
+    <t>Vaprus</t>
+  </si>
+  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Paide</t>
-  </si>
-  <si>
-    <t>Vaprus</t>
-  </si>
-  <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
@@ -187,16 +187,16 @@
     <t>Nacional Asunción</t>
   </si>
   <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
+    <t>Tallinna FC Levadia</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
     <t>Pharco</t>
-  </si>
-  <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
-    <t>Tallinna FC Levadia</t>
-  </si>
-  <si>
-    <t>Trans</t>
   </si>
   <si>
     <t>Tallinna FC Flora</t>
@@ -703,7 +703,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>44993.5</v>
+        <v>44993.52083333334</v>
       </c>
       <c r="C2">
         <v>21</v>
@@ -715,91 +715,91 @@
         <v>57</v>
       </c>
       <c r="F2">
-        <v>2.26</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>2.55</v>
+        <v>4.25</v>
       </c>
       <c r="H2">
-        <v>3.62</v>
+        <v>1.42</v>
       </c>
       <c r="I2">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>1.28</v>
+      </c>
+      <c r="L2">
+        <v>3.6</v>
+      </c>
+      <c r="M2">
+        <v>1.78</v>
+      </c>
+      <c r="N2">
+        <v>1.92</v>
+      </c>
+      <c r="O2">
+        <v>1.36</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1.75</v>
+      </c>
+      <c r="S2">
+        <v>2.65</v>
+      </c>
+      <c r="T2">
+        <v>1.18</v>
+      </c>
+      <c r="U2">
+        <v>1.09</v>
+      </c>
+      <c r="V2">
+        <v>1.82</v>
+      </c>
+      <c r="W2">
+        <v>1.92</v>
+      </c>
+      <c r="X2">
+        <v>1.37</v>
+      </c>
+      <c r="Y2">
+        <v>1.62</v>
+      </c>
+      <c r="Z2">
+        <v>2.99</v>
+      </c>
+      <c r="AA2">
         <v>6</v>
       </c>
-      <c r="K2">
-        <v>1.55</v>
-      </c>
-      <c r="L2">
-        <v>2.36</v>
-      </c>
-      <c r="M2">
-        <v>2.75</v>
-      </c>
-      <c r="N2">
-        <v>1.4</v>
-      </c>
-      <c r="O2">
-        <v>1.59</v>
-      </c>
-      <c r="P2">
-        <v>2.14</v>
-      </c>
-      <c r="Q2">
-        <v>2.05</v>
-      </c>
-      <c r="R2">
-        <v>1.71</v>
-      </c>
-      <c r="S2">
-        <v>1.29</v>
-      </c>
-      <c r="T2">
-        <v>1.36</v>
-      </c>
-      <c r="U2">
-        <v>1.41</v>
-      </c>
-      <c r="V2">
-        <v>0.67</v>
-      </c>
-      <c r="W2">
-        <v>1.11</v>
-      </c>
-      <c r="X2">
-        <v>1.32</v>
-      </c>
-      <c r="Y2">
-        <v>1.12</v>
-      </c>
-      <c r="Z2">
-        <v>2.44</v>
-      </c>
-      <c r="AA2">
-        <v>1.57</v>
-      </c>
       <c r="AB2">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC2">
-        <v>2.94</v>
+        <v>1.16</v>
       </c>
       <c r="AD2">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AE2">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AF2">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="AG2">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="AH2">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -807,10 +807,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>44993.52083333334</v>
+        <v>44993.54166666666</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -819,102 +819,102 @@
         <v>58</v>
       </c>
       <c r="F3">
-        <v>7.15</v>
+        <v>2.23</v>
       </c>
       <c r="G3">
-        <v>3.98</v>
+        <v>3.2</v>
       </c>
       <c r="H3">
-        <v>1.39</v>
+        <v>2.77</v>
       </c>
       <c r="I3">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K3">
         <v>1.28</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="M3">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="N3">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O3">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P3">
+        <v>2.88</v>
+      </c>
+      <c r="Q3">
+        <v>1.72</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1.46</v>
+      </c>
+      <c r="T3">
+        <v>1.29</v>
+      </c>
+      <c r="U3">
+        <v>1.49</v>
+      </c>
+      <c r="V3">
         <v>3</v>
       </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1.75</v>
-      </c>
-      <c r="S3">
-        <v>2.65</v>
-      </c>
-      <c r="T3">
-        <v>1.18</v>
-      </c>
-      <c r="U3">
-        <v>1.09</v>
-      </c>
-      <c r="V3">
-        <v>1.82</v>
-      </c>
       <c r="W3">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="Y3">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2.99</v>
+        <v>1.55</v>
       </c>
       <c r="AA3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>44993.54166666666</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -923,67 +923,67 @@
         <v>59</v>
       </c>
       <c r="F4">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="G4">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="I4">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J4">
-        <v>11.5</v>
+        <v>13.75</v>
       </c>
       <c r="K4">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="L4">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="M4">
+        <v>1.82</v>
+      </c>
+      <c r="N4">
         <v>1.88</v>
       </c>
-      <c r="N4">
-        <v>1.82</v>
-      </c>
       <c r="O4">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P4">
-        <v>2.88</v>
+        <v>2.73</v>
       </c>
       <c r="Q4">
+        <v>1.65</v>
+      </c>
+      <c r="R4">
+        <v>2.1</v>
+      </c>
+      <c r="S4">
         <v>1.72</v>
       </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1.46</v>
-      </c>
       <c r="T4">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="U4">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Z4">
-        <v>1.55</v>
+        <v>1.11</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>44993.54166666666</v>
+        <v>44993.58333333334</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1030,93 +1030,93 @@
         <v>2.35</v>
       </c>
       <c r="G5">
-        <v>3.47</v>
+        <v>2.73</v>
       </c>
       <c r="H5">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="J5">
-        <v>13.75</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="L5">
-        <v>3.72</v>
+        <v>2.27</v>
       </c>
       <c r="M5">
-        <v>1.74</v>
+        <v>2.75</v>
       </c>
       <c r="N5">
+        <v>1.4</v>
+      </c>
+      <c r="O5">
+        <v>1.59</v>
+      </c>
+      <c r="P5">
+        <v>2.14</v>
+      </c>
+      <c r="Q5">
+        <v>2.05</v>
+      </c>
+      <c r="R5">
+        <v>1.71</v>
+      </c>
+      <c r="S5">
+        <v>1.29</v>
+      </c>
+      <c r="T5">
+        <v>1.36</v>
+      </c>
+      <c r="U5">
+        <v>1.41</v>
+      </c>
+      <c r="V5">
+        <v>0.67</v>
+      </c>
+      <c r="W5">
+        <v>1.11</v>
+      </c>
+      <c r="X5">
+        <v>1.32</v>
+      </c>
+      <c r="Y5">
+        <v>1.12</v>
+      </c>
+      <c r="Z5">
+        <v>2.44</v>
+      </c>
+      <c r="AA5">
+        <v>1.57</v>
+      </c>
+      <c r="AB5">
+        <v>7.8</v>
+      </c>
+      <c r="AC5">
+        <v>2.94</v>
+      </c>
+      <c r="AD5">
+        <v>1.27</v>
+      </c>
+      <c r="AE5">
+        <v>1.6</v>
+      </c>
+      <c r="AF5">
         <v>1.97</v>
       </c>
-      <c r="O5">
-        <v>1.38</v>
-      </c>
-      <c r="P5">
-        <v>2.73</v>
-      </c>
-      <c r="Q5">
-        <v>1.65</v>
-      </c>
-      <c r="R5">
-        <v>2.1</v>
-      </c>
-      <c r="S5">
-        <v>1.72</v>
-      </c>
-      <c r="T5">
-        <v>1.26</v>
-      </c>
-      <c r="U5">
-        <v>1.32</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>1.11</v>
-      </c>
-      <c r="Z5">
-        <v>1.11</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>44993.58333333334</v>
@@ -1131,13 +1131,13 @@
         <v>61</v>
       </c>
       <c r="F6">
-        <v>4.2</v>
+        <v>4.94</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H6">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="I6">
         <v>1.03</v>
@@ -1152,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="N6">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="O6">
         <v>1.35</v>
@@ -1235,13 +1235,13 @@
         <v>62</v>
       </c>
       <c r="F7">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G7">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H7">
-        <v>15.25</v>
+        <v>13.25</v>
       </c>
       <c r="I7">
         <v>1.03</v>
@@ -1339,13 +1339,13 @@
         <v>63</v>
       </c>
       <c r="F8">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="G8">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="H8">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="I8">
         <v>1.08</v>
@@ -1360,10 +1360,10 @@
         <v>2.95</v>
       </c>
       <c r="M8">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
         <v>1.46</v>
@@ -1443,13 +1443,13 @@
         <v>64</v>
       </c>
       <c r="F9">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="H9">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1464,10 +1464,10 @@
         <v>3.1</v>
       </c>
       <c r="M9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O9">
         <v>1.44</v>
@@ -1547,13 +1547,13 @@
         <v>65</v>
       </c>
       <c r="F10">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G10">
-        <v>6.5</v>
+        <v>6.98</v>
       </c>
       <c r="H10">
-        <v>10.75</v>
+        <v>11.49</v>
       </c>
       <c r="I10">
         <v>1.02</v>
@@ -1568,10 +1568,10 @@
         <v>6.5</v>
       </c>
       <c r="M10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>1.2</v>
@@ -1651,13 +1651,13 @@
         <v>66</v>
       </c>
       <c r="F11">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="G11">
-        <v>4.22</v>
+        <v>4.37</v>
       </c>
       <c r="H11">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1672,10 +1672,10 @@
         <v>4.33</v>
       </c>
       <c r="M11">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="N11">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="O11">
         <v>1.29</v>
@@ -1755,13 +1755,13 @@
         <v>67</v>
       </c>
       <c r="F12">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="H12">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1776,10 +1776,10 @@
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="N12">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1859,13 +1859,13 @@
         <v>68</v>
       </c>
       <c r="F13">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="G13">
-        <v>3.88</v>
+        <v>3.99</v>
       </c>
       <c r="H13">
-        <v>4.25</v>
+        <v>3.83</v>
       </c>
       <c r="I13">
         <v>1.02</v>
@@ -1880,10 +1880,10 @@
         <v>5.6</v>
       </c>
       <c r="M13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O13">
         <v>1.25</v>
@@ -2026,19 +2026,19 @@
         <v>3.89</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF14">
         <v>2.2</v>
@@ -2067,13 +2067,13 @@
         <v>70</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O15">
         <v>0</v>
